--- a/medicine/Psychotrope/Fumer_la_pipe/Fumer_la_pipe.xlsx
+++ b/medicine/Psychotrope/Fumer_la_pipe/Fumer_la_pipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fait de fumer la pipe consiste à goûter (ou, moins fréquemment, à inhaler) la fumée produite en brûlant une substance, le plus souvent du tabac, dans une pipe. C'est la plus ancienne forme traditionnelle de fumage.
 Le fait de fumer régulièrement la pipe a été cité comme comportant de graves risques pour la santé, notamment un risque accru de diverses formes de cancer ainsi que de maladies pulmonaires et cardiovasculaires.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un certain nombre de tribus amérindiennes ont des traditions de fumer la pipe, qui font partie de leurs cultures bien avant l'arrivée des Européens. Le tabac est souvent fumé, généralement à des fins cérémonielles, bien que d'autres mélanges d'herbes sacrées soient également courants. Différents types de pipes de cérémonie ont été fumés lors de cérémonies pour sceller des alliances et des traités, notamment des traités de paix (d'où l'appellation impropre de « calumet de paix »). Le tabac a été introduit en Europe depuis les Amériques au XVIe siècle et s'est rapidement répandu dans le monde entier[1]. En Asie, au XIXe siècle, l'opium (qui n'était auparavant que consommé) était ajouté au tabac et fumé dans des pipes. Le madak (un mélange d'opium et de tabac) s'est avéré être beaucoup plus addictif que l'opium ingéré par voie orale, entraînant des problèmes sociaux en Chine qui ont culminé avec la première et la seconde guerre de l'opium[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un certain nombre de tribus amérindiennes ont des traditions de fumer la pipe, qui font partie de leurs cultures bien avant l'arrivée des Européens. Le tabac est souvent fumé, généralement à des fins cérémonielles, bien que d'autres mélanges d'herbes sacrées soient également courants. Différents types de pipes de cérémonie ont été fumés lors de cérémonies pour sceller des alliances et des traités, notamment des traités de paix (d'où l'appellation impropre de « calumet de paix »). Le tabac a été introduit en Europe depuis les Amériques au XVIe siècle et s'est rapidement répandu dans le monde entier. En Asie, au XIXe siècle, l'opium (qui n'était auparavant que consommé) était ajouté au tabac et fumé dans des pipes. Le madak (un mélange d'opium et de tabac) s'est avéré être beaucoup plus addictif que l'opium ingéré par voie orale, entraînant des problèmes sociaux en Chine qui ont culminé avec la première et la seconde guerre de l'opium.
 Selon Alfred Dunhill, les Africains ont une longue tradition de fumer du chanvre dans des pipes en calebasse : il affirme qu'en 1884, le roi de la tribu Baluka du Congo avait établi un « riamba » ou culte de fumer du chanvre à la place du culte fétiche. D'énormes calebasses étaient utilisées.
-Au XXe siècle, fumer la pipe a été adopté comme méthode préférée d'inhalation d'une variété de drogues psychoactives, et certains prétendent qu'il s'agit d'une méthode d'ingestion plus intense. Le crack fumable a la réputation d'être plus addictif que la forme insufflée de la cocaïne. De même, la méthamphétamine a gagné en popularité sous une forme cristalline qui, lorsqu'elle est fumée dans une pipe, permet à l'utilisateur d'éviter l'irritation nasale douloureuse du reniflement. Lorsqu'elle n'est pas appliquée sur une cigarette ou un joint, la forme liquide du PCP est généralement fumée dans une pipe avec du tabac ou du cannabis[2].
-Grâce en grande partie au succès des campagnes contre le tabagisme, les ventes de tabac à pipe au Canada ont chuté de près de 80 % au cours d'une récente période de quinze ans pour atteindre 27 319 kilogrammes en 2016, contre 135 010 kilogrammes en 2001, selon les données fédérales[3]. En comparaison, les ventes de cigarettes au Canada ont chuté d'environ 32 % au cours de la même période pour s'établir à 28,6 milliards d'unités[4].
+Au XXe siècle, fumer la pipe a été adopté comme méthode préférée d'inhalation d'une variété de drogues psychoactives, et certains prétendent qu'il s'agit d'une méthode d'ingestion plus intense. Le crack fumable a la réputation d'être plus addictif que la forme insufflée de la cocaïne. De même, la méthamphétamine a gagné en popularité sous une forme cristalline qui, lorsqu'elle est fumée dans une pipe, permet à l'utilisateur d'éviter l'irritation nasale douloureuse du reniflement. Lorsqu'elle n'est pas appliquée sur une cigarette ou un joint, la forme liquide du PCP est généralement fumée dans une pipe avec du tabac ou du cannabis.
+Grâce en grande partie au succès des campagnes contre le tabagisme, les ventes de tabac à pipe au Canada ont chuté de près de 80 % au cours d'une récente période de quinze ans pour atteindre 27 319 kilogrammes en 2016, contre 135 010 kilogrammes en 2001, selon les données fédérales. En comparaison, les ventes de cigarettes au Canada ont chuté d'environ 32 % au cours de la même période pour s'établir à 28,6 milliards d'unités.
 </t>
         </is>
       </c>
@@ -546,14 +560,12 @@
           <t>Pipes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pipes ont été fabriquées à partir d'un assortiment de matériaux, notamment la bruyère, l'argile, la céramique, l'épi de maïs, le verre, l'écume de mer, le métal, la calebasse, la pierre, le bois, le chêne des marais et diverses combinaisons de ceux-ci, notamment la pipe calebasse anglaise classique.
 La taille d'une pipe, en particulier du foyer, dépend en grande partie de ce que l'on veut y fumer. Les grandes pipes à tabac de style occidental sont utilisées pour les tabacs durs au goût fort, dont la fumée n'est généralement pas inhalée. Des pipes plus petites telles que le midwakh ou le kiseru sont utilisées pour inhaler des tabacs plus doux tels que le dokha et le kizami ou d'autres substances telles que le cannabis et l'opium.
-Pipes à eau
-Les pipes à eau diffusent la fumée dans l'eau pour refroidir et filtrer la fumée. Les deux types de base sont les narguilés stationnaires, avec un ou plusieurs longs tubes souples, et les bangs portables.
-Pipes à cuillère
-Les pipes à cuillère (pipes en verre ou pipes à bol en verre) sont devenues de plus en plus courantes avec l'augmentation de la consommation de cannabis ou d'autres stupéfiants. Les pipes à cuillère sont normalement fabriquées en verre borosilicaté pour résister à une exposition répétée à des températures élevées. Ils se composent d'un bol pour emballer le matériau, d'une tige pour inhaler et d'un carburateur (carb) pour contrôler l'aspiration et le débit d'air dans le tuyau. Ces tuyaux utilisent un processus en deux étapes. Tout d'abord, l'utilisateur inhale tout en allumant le matériau à fumer et en maintenant le carburateur enfoncé, permettant à la fumée de remplir la tige. Ensuite, l'utilisateur libère le carburateur tout en inspirant pour permettre à l'air d'entrer dans la tige et à la fumée d'être aspirée dans la bouche de l'utilisateur.
 </t>
         </is>
       </c>
@@ -579,13 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Effets sur la santé</t>
+          <t>Pipes</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les risques globaux pour la santé sont 10 % plus élevés chez les fumeurs de pipe que chez les non-fumeurs[5]. Cependant, les fumeurs de pipe ou de cigares qui sont d'anciens fumeurs de cigarettes peuvent conserver l'habitude d'inhaler de la fumée[5]. Dans de tels cas, il y a une augmentation de 30 % du risque de maladie cardiaque et un risque presque trois fois plus élevé de développer une MPOC[5]. De plus, il existe une relation causale entre le tabagisme et la mortalité due au poumon et à d'autres cancers, ainsi qu'aux problèmes parodontaux, tels que la perte de dents et d'os[5].
-Cependant, tous les produits du tabac délivrent de la nicotine au système nerveux central, et il existe un risque confirmé de dépendance. De nombreuses formes de consommation de tabac sont associées à un risque significativement accru de morbidité et de mortalité prématurée dues aux maladies liées au tabac[5].
+          <t>Pipes à eau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pipes à eau diffusent la fumée dans l'eau pour refroidir et filtrer la fumée. Les deux types de base sont les narguilés stationnaires, avec un ou plusieurs longs tubes souples, et les bangs portables.
 </t>
         </is>
       </c>
@@ -611,13 +628,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>Pipes</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les coutumes, le vocabulaire et l'étiquette qui entourent la culture de la pipe varient à travers le monde et dépendent à la fois des personnes qui fument et de la substance fumée.
-Par exemple, dans de nombreux endroits en Europe et en Amérique du Nord, fumer la pipe à tabac a parfois été considéré comme distingué ou digne et a donné lieu à une variété d'accessoires personnalisés et même de vêtements tels que la veste de smoking et l'ancien prix du fumeur de pipe de l'année au Royaume-Uni, ainsi que le terme kapnismologie ("étude de la fumée")[6].
+          <t>Pipes à cuillère</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pipes à cuillère (pipes en verre ou pipes à bol en verre) sont devenues de plus en plus courantes avec l'augmentation de la consommation de cannabis ou d'autres stupéfiants. Les pipes à cuillère sont normalement fabriquées en verre borosilicaté pour résister à une exposition répétée à des températures élevées. Ils se composent d'un bol pour emballer le matériau, d'une tige pour inhaler et d'un carburateur (carb) pour contrôler l'aspiration et le débit d'air dans le tuyau. Ces tuyaux utilisent un processus en deux étapes. Tout d'abord, l'utilisateur inhale tout en allumant le matériau à fumer et en maintenant le carburateur enfoncé, permettant à la fumée de remplir la tige. Ensuite, l'utilisateur libère le carburateur tout en inspirant pour permettre à l'air d'entrer dans la tige et à la fumée d'être aspirée dans la bouche de l'utilisateur.
 </t>
         </is>
       </c>
@@ -643,31 +665,136 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Effets sur la santé</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les risques globaux pour la santé sont 10 % plus élevés chez les fumeurs de pipe que chez les non-fumeurs. Cependant, les fumeurs de pipe ou de cigares qui sont d'anciens fumeurs de cigarettes peuvent conserver l'habitude d'inhaler de la fumée. Dans de tels cas, il y a une augmentation de 30 % du risque de maladie cardiaque et un risque presque trois fois plus élevé de développer une MPOC. De plus, il existe une relation causale entre le tabagisme et la mortalité due au poumon et à d'autres cancers, ainsi qu'aux problèmes parodontaux, tels que la perte de dents et d'os.
+Cependant, tous les produits du tabac délivrent de la nicotine au système nerveux central, et il existe un risque confirmé de dépendance. De nombreuses formes de consommation de tabac sont associées à un risque significativement accru de morbidité et de mortalité prématurée dues aux maladies liées au tabac.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fumer_la_pipe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fumer_la_pipe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les coutumes, le vocabulaire et l'étiquette qui entourent la culture de la pipe varient à travers le monde et dépendent à la fois des personnes qui fument et de la substance fumée.
+Par exemple, dans de nombreux endroits en Europe et en Amérique du Nord, fumer la pipe à tabac a parfois été considéré comme distingué ou digne et a donné lieu à une variété d'accessoires personnalisés et même de vêtements tels que la veste de smoking et l'ancien prix du fumeur de pipe de l'année au Royaume-Uni, ainsi que le terme kapnismologie ("étude de la fumée").
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fumer_la_pipe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fumer_la_pipe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Fumeurs de pipe notables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Un certain nombre de personnes réelles et fictives sont fortement associées au passe-temps de fumer la pipe.
-Hommes
-Buzz Aldrin (b.1930), astronaute américain.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un certain nombre de personnes réelles et fictives sont fortement associées au passe-temps de fumer la pipe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fumer_la_pipe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fumer_la_pipe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fumeurs de pipe notables</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hommes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Buzz Aldrin (b.1930), astronaute américain.
 Louis Althusser, philosophe français.
 Roald Amundsen, explorateur norvégien.
-Sparky Anderson, directeur de baseball américain[7].
+Sparky Anderson, directeur de baseball américain.
 Clement Attlee (1883-1967), Premier ministre du Royaume-Uni (1945–51).
 Johann Sebastian Bach, compositeur allemand. Il a écrit une aria sur son passe-temps pour le les pipes à tabac: Tan oft ich meine Tobackspfeife BWV 515a.
 Douglas Bader, pilote militaire britannique.
-Vicente Battista, écrivain argentin[8].
+Vicente Battista, écrivain argentin.
 Karl Barth, théologien allemand.
 Zygmunt Baumann, sociologue polonais britannique.
-Enzo Bearzot, directeur de l'équipe nationale italienne de football de la Coupe du Monde de la FIFA 1982[9].
+Enzo Bearzot, directeur de l'équipe nationale italienne de football de la Coupe du Monde de la FIFA 1982.
 Ludwig van Beethoven (1770-1827), compositeur allemand.
 Tony Benn (1925-2014), député britannique de longue date.
 Edgar Benson, ministre canadien des finances.
-Rómulo Betancourt (1908-1981), Président du Venezuela[8].
+Rómulo Betancourt (1908-1981), Président du Venezuela.
 Georges Brassens, chanteur et guitariste français.
-Clarence "Gatemouth" Brown, musicien de blues américain : avide fumeur de pipe, le guitariste texan a souvent vendu son propre mélange de tabac à pipe, ainsi que des pipes à tabac autographiés dans ses concerts et spectacles[10].
-Abelardo Castillo, écrivain argentin[8]
+Clarence "Gatemouth" Brown, musicien de blues américain : avide fumeur de pipe, le guitariste texan a souvent vendu son propre mélange de tabac à pipe, ainsi que des pipes à tabac autographiés dans ses concerts et spectacles.
+Abelardo Castillo, écrivain argentin
 Graham Chapman (1941-1989), acteur britannique et comédien (Monty Python).
 Ben Chifley (1885-1951), Premier Ministre australien (1945-1949).
 Julio Cortázar, écrivain argentin.
@@ -675,14 +802,14 @@
 Bing Crosby (1903-1977), chanteur et acteur américain.
 Bill Davis, ancien Premier ministre de l'Ontario.
 Allen Welsh Dulles, diplomate et avocat américain, est devenu le premier directeur civil du renseignement central (DCI) et son plus ancien directeur à ce jour.
-Edward VIII, roi du Royaume-Uni[11].
+Edward VIII, roi du Royaume-Uni.
 Albert Einstein (1879-1955), scientifique allemand. Il a été connu pour fumer la pipe et a dit une fois: "Je pense que fumer une pipe contribue à un jugement quelque peu calme et objectif dans toutes les affaires humaines".
 Mircea Eliade, auteur et historien roumain.
 Akhteruzzaman Elias, auteur du Bangladesh et humaniste séculier.
-William Faulkner, auteur américain, connu pour être un défenseur enthousiaste du tabagisme par pipe[12].
-Manuel Felguérez, artiste mexicain[8].
+William Faulkner, auteur américain, connu pour être un défenseur enthousiaste du tabagisme par pipe.
+Manuel Felguérez, artiste mexicain.
 Barry Fitzgerald (1888-1961), acteur irlandais du cinéma et de la télévision.
-Gerald R. Ford (1913-2006), 38e Président des États-Unis de 1974 à 1977[13].
+Gerald R. Ford (1913-2006), 38e Président des États-Unis de 1974 à 1977.
 Stephen Fry (b. 1957), auteur, acteur et comédien anglais.
 Clark Gable (1901-1960), acteur américain.
 Theodor Seuss Geisel, auteur germano-américain, caricaturiste politique.
@@ -695,7 +822,7 @@
 Hugh Hefner (1926-2017), éditeur américain.
 Ernest Hemingway (1899-1961), romancier américain.
 Earl Hines, musicien de jazz américain.
-Herbert Hoover (1874-1964), 31e Président des États-Unis (1928-33)[14].
+Herbert Hoover (1874-1964), 31e Président des États-Unis (1928-33).
 Edwin Hubble, astronome américain.
 Burl Ives, chanteuse américaine.
 Mark Jones, footballeur anglais.
@@ -713,7 +840,7 @@
 Harold Macmillan (1894-1986), Premier Ministre du Royaume-Uni (1957-1963)
 Sous-commandant Marcos, révolutionnaire mexicain.
 Thabo Mbeki (b.1942), Président de l'Afrique du Sud (1999-2008).
-John N. Mitchell (1913-1988), 67e procureur général des États-Unis (1969–1972) sous le président Richard Nixon[15].
+John N. Mitchell (1913-1988), 67e procureur général des États-Unis (1969–1972) sous le président Richard Nixon.
 Eric Morecambe (1926-1984), comédien britannique.
 Farley Mowat (1921-2014), auteur canadien.
 Harry Mulisch, romancier néerlandais.
@@ -729,7 +856,7 @@
 Jean-Paul Sartre, écrivain français et philosophe.
 Antonin Scalia, ancien juge de la cour suprême américaine.
 Ronald Aylmer Fisher, mathématicien et généticien britannique, et le père de la biométrie moderne et des statistiques expérimentales.
-Helmut Schmidt (1918-2015), chancelier de l'Allemagne de l'Ouest (1974-82)[15].
+Helmut Schmidt (1918-2015), chancelier de l'Allemagne de l'Ouest (1974-82).
 Samuel J. Seymour (1860-1956), la dernière personne survivante qui avait été présente au théâtre de Ford la nuit du meurtre du président américain Abraham Lincoln le 14 avril 1865.
 Will Self, auteur britannique.
 Georges Simenon, romancier belge. Son personnage le plus célèbre, Jules Maigret, est également fumeur de pipe.
@@ -737,7 +864,7 @@
 Jacques Tati, acteur français, comédien et réalisateur de cinéma.
 Josip Broz Tito, président yougoslave à vie. Généralement vu fumer des cigarettes avec une pipe.
 J. R. R. Tolkien (1892-1973), romancier britannique. Le Hobbit et le Seigneur des Anneaux ont plusieurs scènes détaillées de personnages qui fument la pipe. Tolkien était lui-même un avide fumeur de pipe.
-Mark Twain (1835-1910), auteur américain, a.k.a. Samuel Clemens, écrivain de Huckleberry Finn a favorisé les pipes de maïs du Missouri Meershaum. Il favorisait un mélange spécial de tabac de "feuilles cubaines", disant même une fois que « Je n'irai pas au paradis si je ne peux y fumer »[16].
+Mark Twain (1835-1910), auteur américain, a.k.a. Samuel Clemens, écrivain de Huckleberry Finn a favorisé les pipes de maïs du Missouri Meershaum. Il favorisait un mélange spécial de tabac de "feuilles cubaines", disant même une fois que « Je n'irai pas au paradis si je ne peux y fumer ».
 Edward Upward, romancier britannique.
 Martin Van Buren (1782-1862), huitième président des États-Unis (1837-1841).
 Lee Van Cleef, acteur américain (dans le rôle de la brute, dans Le Bon, la Brute et le Truant).
@@ -745,10 +872,44 @@
 Paul Vanden Boeynants (1919-2001), Premier ministre belge.
 Stevie Ray Vaughan, guitariste et compositeur blues texan (1954-1990).
 Alan Watts, écrivain et orateur britannique.
-Harold Wilson (1916-1995), Premier Ministre du Royaume-Uni (1964-70, 1974-76)[15].
-Tapio Wirkkala (1915–1985), designer et sculpteur finlandais.
-Personnages de fiction
-Bacicci, un marin dont la silhouette figure sur l'écusson du club de l'UC Sampdoria[17].
+Harold Wilson (1916-1995), Premier Ministre du Royaume-Uni (1964-70, 1974-76).
+Tapio Wirkkala (1915–1985), designer et sculpteur finlandais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fumer_la_pipe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fumer_la_pipe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fumeurs de pipe notables</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Personnages de fiction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bacicci, un marin dont la silhouette figure sur l'écusson du club de l'UC Sampdoria.
 Olivier B. Bommel, personnage de bande dessinée néerlandais de Tom Poes.
 César, personnage de bande dessinée belge d'Urbanus.
 Cowboy Henk, personnage de bande dessinée belge.
@@ -757,7 +918,7 @@
 Capitaine Haddock, personnage de bande dessinée belge des Aventures de Tintin.
 Sherlock Holmes, personnage littéraire britannique. Il est explicitement décrit comme un fumeur de pipe.
 Monsieur Hulot, personnage du cinéma français.
-Kapitein Rob, personnage de bande dessinée néerlandais[18].
+Kapitein Rob, personnage de bande dessinée néerlandais.
 M, personnage littéraire et cinématographique britannique ( James Bond ).
 Miss Peregrine, de Miss Peregrine's Home For Peculiar Children.
 Jules Maigret, personnage littéraire belge, créé par Georges Simenon, qui était également fumeur de pipe.
